--- a/results/mp/tinybert/home-spam/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/126/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="130">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,15 +46,15 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>useless</t>
+  </si>
+  <si>
     <t>stopped</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>returned</t>
   </si>
   <si>
@@ -70,106 +70,115 @@
     <t>loves</t>
   </si>
   <si>
+    <t>wonderful</t>
+  </si>
+  <si>
+    <t>beautifully</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>wonderful</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>beautifully</t>
-  </si>
-  <si>
     <t>fantastic</t>
   </si>
   <si>
-    <t>favorite</t>
-  </si>
-  <si>
     <t>beautiful</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>pleased</t>
   </si>
   <si>
-    <t>best</t>
+    <t>salad</t>
+  </si>
+  <si>
+    <t>son</t>
   </si>
   <si>
     <t>loved</t>
   </si>
   <si>
-    <t>thank</t>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>enjoy</t>
+  </si>
+  <si>
+    <t>cakes</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>garlic</t>
   </si>
   <si>
     <t>apples</t>
   </si>
   <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>son</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>glad</t>
+  </si>
+  <si>
+    <t>wedding</t>
   </si>
   <si>
     <t>kids</t>
   </si>
   <si>
-    <t>daughter</t>
+    <t>mas</t>
   </si>
   <si>
     <t>wife</t>
   </si>
   <si>
-    <t>wedding</t>
-  </si>
-  <si>
-    <t>enjoy</t>
-  </si>
-  <si>
-    <t>cakes</t>
-  </si>
-  <si>
-    <t>glad</t>
-  </si>
-  <si>
-    <t>husband</t>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>rice</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>sturdy</t>
   </si>
   <si>
     <t>potatoes</t>
   </si>
   <si>
-    <t>rice</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>everyday</t>
-  </si>
-  <si>
-    <t>mas</t>
+    <t>pie</t>
+  </si>
+  <si>
+    <t>comfortable</t>
   </si>
   <si>
     <t>perfectly</t>
@@ -178,220 +187,208 @@
     <t>cooke</t>
   </si>
   <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>pie</t>
-  </si>
-  <si>
     <t>ever</t>
   </si>
   <si>
+    <t>handy</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>cooks</t>
+  </si>
+  <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>gift</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
     <t>fresh</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>cooks</t>
-  </si>
-  <si>
-    <t>fun</t>
-  </si>
-  <si>
-    <t>gift</t>
+    <t>super</t>
   </si>
   <si>
     <t>pop</t>
   </si>
   <si>
-    <t>comfortable</t>
-  </si>
-  <si>
-    <t>ze</t>
-  </si>
-  <si>
     <t>home</t>
   </si>
   <si>
+    <t>nicely</t>
+  </si>
+  <si>
+    <t>cookies</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>cooking</t>
+  </si>
+  <si>
     <t>popcorn</t>
   </si>
   <si>
-    <t>powerful</t>
-  </si>
-  <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>cookies</t>
-  </si>
-  <si>
-    <t>nice</t>
+    <t>dough</t>
   </si>
   <si>
     <t>baking</t>
   </si>
   <si>
-    <t>super</t>
-  </si>
-  <si>
-    <t>nicely</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
     <t>years</t>
   </si>
   <si>
+    <t>cream</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
     <t>old</t>
   </si>
   <si>
+    <t>fan</t>
+  </si>
+  <si>
     <t>tea</t>
   </si>
   <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>keeps</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
+  <si>
+    <t>cook</t>
+  </si>
+  <si>
     <t>day</t>
   </si>
   <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>cream</t>
+    <t>good</t>
   </si>
   <si>
     <t>kitchen</t>
   </si>
   <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>cook</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
     <t>gr</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>keeps</t>
-  </si>
-  <si>
-    <t>simple</t>
+    <t>liked</t>
+  </si>
+  <si>
+    <t>pan</t>
   </si>
   <si>
     <t>w</t>
   </si>
   <si>
-    <t>fan</t>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>making</t>
   </si>
   <si>
     <t>maker</t>
   </si>
   <si>
+    <t>ice</t>
+  </si>
+  <si>
+    <t>works</t>
+  </si>
+  <si>
     <t>new</t>
   </si>
   <si>
-    <t>brand</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>works</t>
-  </si>
-  <si>
-    <t>ice</t>
-  </si>
-  <si>
-    <t>making</t>
+    <t>dish</t>
+  </si>
+  <si>
+    <t>well</t>
   </si>
   <si>
     <t>exactly</t>
   </si>
   <si>
-    <t>well</t>
-  </si>
-  <si>
     <t>wish</t>
   </si>
   <si>
-    <t>highly</t>
+    <t>big</t>
+  </si>
+  <si>
+    <t>far</t>
+  </si>
+  <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>many</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>make</t>
+  </si>
+  <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>bought</t>
+  </si>
+  <si>
+    <t>hot</t>
+  </si>
+  <si>
+    <t>quality</t>
   </si>
   <si>
     <t>every</t>
   </si>
   <si>
-    <t>big</t>
-  </si>
-  <si>
-    <t>far</t>
-  </si>
-  <si>
-    <t>dish</t>
-  </si>
-  <si>
-    <t>many</t>
-  </si>
-  <si>
-    <t>bought</t>
-  </si>
-  <si>
-    <t>recommend</t>
-  </si>
-  <si>
-    <t>little</t>
-  </si>
-  <si>
-    <t>last</t>
+    <t>cup</t>
+  </si>
+  <si>
+    <t>makes</t>
   </si>
   <si>
     <t>also</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
     <t>coffee</t>
   </si>
   <si>
-    <t>hot</t>
-  </si>
-  <si>
-    <t>cup</t>
-  </si>
-  <si>
     <t>clean</t>
   </si>
   <si>
-    <t>quality</t>
-  </si>
-  <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>make</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
     <t>buy</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>much</t>
   </si>
   <si>
     <t>time</t>
@@ -764,7 +761,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q116"/>
+  <dimension ref="A1:Q115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -775,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -833,13 +830,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.8275862068965517</v>
+        <v>0.896551724137931</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -851,7 +848,7 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
@@ -883,13 +880,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.5555555555555556</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -901,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>17</v>
@@ -933,13 +930,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.3207547169811321</v>
+        <v>0.525</v>
       </c>
       <c r="C5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D5">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -951,19 +948,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5">
-        <v>0.9140625</v>
+        <v>0.8985507246376812</v>
       </c>
       <c r="L5">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="M5">
-        <v>117</v>
+        <v>62</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -975,7 +972,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -983,13 +980,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.2093023255813954</v>
+        <v>0.3207547169811321</v>
       </c>
       <c r="C6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D6">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -1001,19 +998,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K6">
-        <v>0.8840579710144928</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L6">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="M6">
-        <v>61</v>
+        <v>17</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -1025,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1033,13 +1030,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.1923076923076923</v>
+        <v>0.2868217054263566</v>
       </c>
       <c r="C7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -1051,19 +1048,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="K7">
-        <v>0.8591331269349846</v>
+        <v>0.8828125</v>
       </c>
       <c r="L7">
-        <v>555</v>
+        <v>113</v>
       </c>
       <c r="M7">
-        <v>555</v>
+        <v>113</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -1075,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1083,13 +1080,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.1919191919191919</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1101,19 +1098,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K8">
-        <v>0.8478260869565217</v>
+        <v>0.8695652173913043</v>
       </c>
       <c r="L8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M8">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1125,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1133,13 +1130,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.1135135135135135</v>
+        <v>0.1081081081081081</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1151,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K9">
-        <v>0.8421052631578947</v>
+        <v>0.8452012383900929</v>
       </c>
       <c r="L9">
-        <v>16</v>
+        <v>546</v>
       </c>
       <c r="M9">
-        <v>16</v>
+        <v>546</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1175,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>3</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1209,13 +1206,13 @@
         <v>24</v>
       </c>
       <c r="K11">
-        <v>0.8</v>
+        <v>0.7954545454545454</v>
       </c>
       <c r="L11">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="M11">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1227,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1235,13 +1232,13 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7954545454545454</v>
+        <v>0.7555555555555555</v>
       </c>
       <c r="L12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1253,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1261,13 +1258,13 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7662337662337663</v>
+        <v>0.7186147186147186</v>
       </c>
       <c r="L13">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="M13">
-        <v>59</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1279,7 +1276,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1287,13 +1284,13 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7056277056277056</v>
+        <v>0.7012987012987013</v>
       </c>
       <c r="L14">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="M14">
-        <v>163</v>
+        <v>54</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1305,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>68</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1313,13 +1310,13 @@
         <v>28</v>
       </c>
       <c r="K15">
-        <v>0.704225352112676</v>
+        <v>0.6986301369863014</v>
       </c>
       <c r="L15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M15">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1331,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1339,13 +1336,13 @@
         <v>29</v>
       </c>
       <c r="K16">
-        <v>0.6888888888888889</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1357,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1365,13 +1362,13 @@
         <v>30</v>
       </c>
       <c r="K17">
-        <v>0.6538461538461539</v>
+        <v>0.676056338028169</v>
       </c>
       <c r="L17">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="M17">
-        <v>17</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1383,7 +1380,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>9</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1391,13 +1388,13 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6470588235294118</v>
+        <v>0.6745762711864407</v>
       </c>
       <c r="L18">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="M18">
-        <v>44</v>
+        <v>199</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1409,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1417,13 +1414,13 @@
         <v>32</v>
       </c>
       <c r="K19">
-        <v>0.6461538461538462</v>
+        <v>0.6308186195826645</v>
       </c>
       <c r="L19">
-        <v>42</v>
+        <v>786</v>
       </c>
       <c r="M19">
-        <v>42</v>
+        <v>786</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1435,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>23</v>
+        <v>460</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1443,13 +1440,13 @@
         <v>33</v>
       </c>
       <c r="K20">
-        <v>0.6438356164383562</v>
+        <v>0.6307692307692307</v>
       </c>
       <c r="L20">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M20">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1461,7 +1458,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1469,13 +1466,13 @@
         <v>34</v>
       </c>
       <c r="K21">
-        <v>0.6410256410256411</v>
+        <v>0.6140350877192983</v>
       </c>
       <c r="L21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="M21">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1487,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1495,13 +1492,13 @@
         <v>35</v>
       </c>
       <c r="K22">
-        <v>0.6406779661016949</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L22">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="M22">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1513,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>106</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1521,13 +1518,13 @@
         <v>36</v>
       </c>
       <c r="K23">
-        <v>0.64</v>
+        <v>0.6</v>
       </c>
       <c r="L23">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>112</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1539,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>63</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1547,13 +1544,13 @@
         <v>37</v>
       </c>
       <c r="K24">
-        <v>0.6348314606741573</v>
+        <v>0.6</v>
       </c>
       <c r="L24">
-        <v>791</v>
+        <v>21</v>
       </c>
       <c r="M24">
-        <v>791</v>
+        <v>21</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1565,7 +1562,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>455</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1573,13 +1570,13 @@
         <v>38</v>
       </c>
       <c r="K25">
-        <v>0.6326530612244898</v>
+        <v>0.59375</v>
       </c>
       <c r="L25">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="M25">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1591,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1599,13 +1596,13 @@
         <v>39</v>
       </c>
       <c r="K26">
-        <v>0.6285714285714286</v>
+        <v>0.5828571428571429</v>
       </c>
       <c r="L26">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="M26">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1617,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>26</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1625,13 +1622,13 @@
         <v>40</v>
       </c>
       <c r="K27">
-        <v>0.6111111111111112</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L27">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="M27">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1643,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1651,13 +1648,13 @@
         <v>41</v>
       </c>
       <c r="K28">
-        <v>0.5925925925925926</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1677,13 +1674,13 @@
         <v>42</v>
       </c>
       <c r="K29">
-        <v>0.5714285714285714</v>
+        <v>0.5625</v>
       </c>
       <c r="L29">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="M29">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1695,7 +1692,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>15</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1703,13 +1700,13 @@
         <v>43</v>
       </c>
       <c r="K30">
-        <v>0.5625</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L30">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="M30">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1721,7 +1718,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1729,7 +1726,7 @@
         <v>44</v>
       </c>
       <c r="K31">
-        <v>0.5625</v>
+        <v>0.5510204081632653</v>
       </c>
       <c r="L31">
         <v>27</v>
@@ -1747,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1755,13 +1752,13 @@
         <v>45</v>
       </c>
       <c r="K32">
-        <v>0.5614035087719298</v>
+        <v>0.5454545454545454</v>
       </c>
       <c r="L32">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="M32">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1773,7 +1770,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1781,13 +1778,13 @@
         <v>46</v>
       </c>
       <c r="K33">
-        <v>0.5555555555555556</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M33">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1799,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1807,13 +1804,13 @@
         <v>47</v>
       </c>
       <c r="K34">
-        <v>0.5490196078431373</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="M34">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1825,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1833,13 +1830,13 @@
         <v>48</v>
       </c>
       <c r="K35">
-        <v>0.5301204819277109</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="L35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M35">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1851,7 +1848,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1859,13 +1856,13 @@
         <v>49</v>
       </c>
       <c r="K36">
-        <v>0.5288461538461539</v>
+        <v>0.5098039215686274</v>
       </c>
       <c r="L36">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="M36">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1877,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1885,13 +1882,13 @@
         <v>50</v>
       </c>
       <c r="K37">
-        <v>0.5172413793103449</v>
+        <v>0.5096153846153846</v>
       </c>
       <c r="L37">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="M37">
-        <v>15</v>
+        <v>53</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1903,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>14</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1911,13 +1908,13 @@
         <v>51</v>
       </c>
       <c r="K38">
-        <v>0.5151515151515151</v>
+        <v>0.5089820359281437</v>
       </c>
       <c r="L38">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="M38">
-        <v>17</v>
+        <v>85</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1929,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>16</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1937,13 +1934,13 @@
         <v>52</v>
       </c>
       <c r="K39">
-        <v>0.5131578947368421</v>
+        <v>0.492063492063492</v>
       </c>
       <c r="L39">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="M39">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1955,7 +1952,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1963,13 +1960,13 @@
         <v>53</v>
       </c>
       <c r="K40">
-        <v>0.4871794871794872</v>
+        <v>0.4769230769230769</v>
       </c>
       <c r="L40">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="M40">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1981,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>60</v>
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1989,13 +1986,13 @@
         <v>54</v>
       </c>
       <c r="K41">
-        <v>0.4850299401197605</v>
+        <v>0.4754098360655737</v>
       </c>
       <c r="L41">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="M41">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2007,7 +2004,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>86</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -2015,13 +2012,13 @@
         <v>55</v>
       </c>
       <c r="K42">
-        <v>0.4769230769230769</v>
+        <v>0.4473684210526316</v>
       </c>
       <c r="L42">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="M42">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2033,7 +2030,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -2041,13 +2038,13 @@
         <v>56</v>
       </c>
       <c r="K43">
-        <v>0.4586466165413534</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L43">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M43">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2059,7 +2056,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -2067,13 +2064,13 @@
         <v>57</v>
       </c>
       <c r="K44">
-        <v>0.4358974358974359</v>
+        <v>0.443609022556391</v>
       </c>
       <c r="L44">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="M44">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2085,7 +2082,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>22</v>
+        <v>74</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -2093,7 +2090,7 @@
         <v>58</v>
       </c>
       <c r="K45">
-        <v>0.4358974358974359</v>
+        <v>0.425</v>
       </c>
       <c r="L45">
         <v>17</v>
@@ -2111,7 +2108,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -2119,13 +2116,13 @@
         <v>59</v>
       </c>
       <c r="K46">
-        <v>0.4285714285714285</v>
+        <v>0.42</v>
       </c>
       <c r="L46">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="M46">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2137,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>28</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -2145,13 +2142,13 @@
         <v>60</v>
       </c>
       <c r="K47">
-        <v>0.4166666666666667</v>
+        <v>0.4081632653061225</v>
       </c>
       <c r="L47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M47">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2163,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -2171,13 +2168,13 @@
         <v>61</v>
       </c>
       <c r="K48">
-        <v>0.4156626506024096</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L48">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="M48">
-        <v>69</v>
+        <v>33</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2189,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -2197,13 +2194,13 @@
         <v>62</v>
       </c>
       <c r="K49">
-        <v>0.4126984126984127</v>
+        <v>0.3975903614457831</v>
       </c>
       <c r="L49">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="M49">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2215,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -2223,25 +2220,25 @@
         <v>63</v>
       </c>
       <c r="K50">
-        <v>0.4098360655737705</v>
+        <v>0.3902439024390244</v>
       </c>
       <c r="L50">
+        <v>16</v>
+      </c>
+      <c r="M50">
+        <v>16</v>
+      </c>
+      <c r="N50">
+        <v>1</v>
+      </c>
+      <c r="O50">
+        <v>0</v>
+      </c>
+      <c r="P50" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q50">
         <v>25</v>
-      </c>
-      <c r="M50">
-        <v>25</v>
-      </c>
-      <c r="N50">
-        <v>1</v>
-      </c>
-      <c r="O50">
-        <v>0</v>
-      </c>
-      <c r="P50" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q50">
-        <v>36</v>
       </c>
     </row>
     <row r="51" spans="10:17">
@@ -2249,13 +2246,13 @@
         <v>64</v>
       </c>
       <c r="K51">
-        <v>0.4074074074074074</v>
+        <v>0.3846153846153846</v>
       </c>
       <c r="L51">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M51">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2267,7 +2264,7 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>48</v>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="10:17">
@@ -2275,13 +2272,13 @@
         <v>65</v>
       </c>
       <c r="K52">
-        <v>0.4</v>
+        <v>0.3695652173913043</v>
       </c>
       <c r="L52">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="M52">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2293,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="53" spans="10:17">
@@ -2301,13 +2298,13 @@
         <v>66</v>
       </c>
       <c r="K53">
-        <v>0.3947368421052632</v>
+        <v>0.3650793650793651</v>
       </c>
       <c r="L53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="M53">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2319,7 +2316,7 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="10:17">
@@ -2327,13 +2324,13 @@
         <v>67</v>
       </c>
       <c r="K54">
-        <v>0.3947368421052632</v>
+        <v>0.3636363636363636</v>
       </c>
       <c r="L54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="M54">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2345,7 +2342,7 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>23</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="10:17">
@@ -2353,13 +2350,13 @@
         <v>68</v>
       </c>
       <c r="K55">
-        <v>0.3902439024390244</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="L55">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M55">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2371,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="56" spans="10:17">
@@ -2379,13 +2376,13 @@
         <v>69</v>
       </c>
       <c r="K56">
-        <v>0.39</v>
+        <v>0.3478260869565217</v>
       </c>
       <c r="L56">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="M56">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2397,7 +2394,7 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>61</v>
+        <v>30</v>
       </c>
     </row>
     <row r="57" spans="10:17">
@@ -2405,13 +2402,13 @@
         <v>70</v>
       </c>
       <c r="K57">
-        <v>0.3478260869565217</v>
+        <v>0.3431372549019608</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="M57">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="N57">
         <v>1</v>
@@ -2423,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="Q57">
-        <v>30</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="10:17">
@@ -2431,13 +2428,13 @@
         <v>71</v>
       </c>
       <c r="K58">
-        <v>0.3382352941176471</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="L58">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="M58">
-        <v>138</v>
+        <v>37</v>
       </c>
       <c r="N58">
         <v>1</v>
@@ -2449,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>270</v>
+        <v>74</v>
       </c>
     </row>
     <row r="59" spans="10:17">
@@ -2457,13 +2454,13 @@
         <v>72</v>
       </c>
       <c r="K59">
-        <v>0.3333333333333333</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="M59">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="N59">
         <v>1</v>
@@ -2475,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>40</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="10:17">
@@ -2483,7 +2480,7 @@
         <v>73</v>
       </c>
       <c r="K60">
-        <v>0.3260869565217391</v>
+        <v>0.3191489361702128</v>
       </c>
       <c r="L60">
         <v>15</v>
@@ -2501,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="10:17">
@@ -2509,13 +2506,13 @@
         <v>74</v>
       </c>
       <c r="K61">
-        <v>0.3214285714285715</v>
+        <v>0.3166666666666667</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M61">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N61">
         <v>1</v>
@@ -2527,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62" spans="10:17">
@@ -2535,13 +2532,13 @@
         <v>75</v>
       </c>
       <c r="K62">
-        <v>0.3153153153153153</v>
+        <v>0.311284046692607</v>
       </c>
       <c r="L62">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="M62">
-        <v>35</v>
+        <v>80</v>
       </c>
       <c r="N62">
         <v>1</v>
@@ -2553,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="Q62">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="10:17">
@@ -2561,13 +2558,13 @@
         <v>76</v>
       </c>
       <c r="K63">
-        <v>0.311284046692607</v>
+        <v>0.3088235294117647</v>
       </c>
       <c r="L63">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="M63">
-        <v>80</v>
+        <v>21</v>
       </c>
       <c r="N63">
         <v>1</v>
@@ -2579,7 +2576,7 @@
         <v>0</v>
       </c>
       <c r="Q63">
-        <v>177</v>
+        <v>47</v>
       </c>
     </row>
     <row r="64" spans="10:17">
@@ -2587,13 +2584,13 @@
         <v>77</v>
       </c>
       <c r="K64">
-        <v>0.3082706766917293</v>
+        <v>0.3064516129032258</v>
       </c>
       <c r="L64">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="N64">
         <v>1</v>
@@ -2605,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="Q64">
-        <v>92</v>
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="10:17">
@@ -2613,13 +2610,13 @@
         <v>78</v>
       </c>
       <c r="K65">
-        <v>0.302158273381295</v>
+        <v>0.3007518796992481</v>
       </c>
       <c r="L65">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="M65">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N65">
         <v>1</v>
@@ -2631,7 +2628,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="10:17">
@@ -2639,13 +2636,13 @@
         <v>79</v>
       </c>
       <c r="K66">
-        <v>0.297029702970297</v>
+        <v>0.2916666666666667</v>
       </c>
       <c r="L66">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="M66">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="N66">
         <v>1</v>
@@ -2657,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="Q66">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="67" spans="10:17">
@@ -2665,13 +2662,13 @@
         <v>80</v>
       </c>
       <c r="K67">
-        <v>0.2903225806451613</v>
+        <v>0.2733812949640288</v>
       </c>
       <c r="L67">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="M67">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="N67">
         <v>1</v>
@@ -2683,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>44</v>
+        <v>101</v>
       </c>
     </row>
     <row r="68" spans="10:17">
@@ -2691,13 +2688,13 @@
         <v>81</v>
       </c>
       <c r="K68">
-        <v>0.2794117647058824</v>
+        <v>0.2643835616438356</v>
       </c>
       <c r="L68">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="M68">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="N68">
         <v>1</v>
@@ -2709,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>49</v>
+        <v>537</v>
       </c>
     </row>
     <row r="69" spans="10:17">
@@ -2717,13 +2714,13 @@
         <v>82</v>
       </c>
       <c r="K69">
-        <v>0.2631578947368421</v>
+        <v>0.2582781456953642</v>
       </c>
       <c r="L69">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="M69">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="N69">
         <v>1</v>
@@ -2735,7 +2732,7 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>154</v>
+        <v>112</v>
       </c>
     </row>
     <row r="70" spans="10:17">
@@ -2743,13 +2740,13 @@
         <v>83</v>
       </c>
       <c r="K70">
-        <v>0.2616438356164383</v>
+        <v>0.25</v>
       </c>
       <c r="L70">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="M70">
-        <v>191</v>
+        <v>21</v>
       </c>
       <c r="N70">
         <v>1</v>
@@ -2761,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="Q70">
-        <v>539</v>
+        <v>63</v>
       </c>
     </row>
     <row r="71" spans="10:17">
@@ -2795,13 +2792,13 @@
         <v>85</v>
       </c>
       <c r="K72">
-        <v>0.2378902045209903</v>
+        <v>0.2475247524752475</v>
       </c>
       <c r="L72">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="M72">
-        <v>221</v>
+        <v>25</v>
       </c>
       <c r="N72">
         <v>1</v>
@@ -2813,7 +2810,7 @@
         <v>0</v>
       </c>
       <c r="Q72">
-        <v>708</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="10:17">
@@ -2821,13 +2818,13 @@
         <v>86</v>
       </c>
       <c r="K73">
-        <v>0.2285714285714286</v>
+        <v>0.2314316469321852</v>
       </c>
       <c r="L73">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="M73">
-        <v>24</v>
+        <v>215</v>
       </c>
       <c r="N73">
         <v>1</v>
@@ -2839,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q73">
-        <v>81</v>
+        <v>714</v>
       </c>
     </row>
     <row r="74" spans="10:17">
@@ -2847,13 +2844,13 @@
         <v>87</v>
       </c>
       <c r="K74">
-        <v>0.2261904761904762</v>
+        <v>0.2296650717703349</v>
       </c>
       <c r="L74">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="M74">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="N74">
         <v>1</v>
@@ -2865,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="Q74">
-        <v>65</v>
+        <v>161</v>
       </c>
     </row>
     <row r="75" spans="10:17">
@@ -2873,13 +2870,13 @@
         <v>88</v>
       </c>
       <c r="K75">
-        <v>0.2251655629139073</v>
+        <v>0.2285714285714286</v>
       </c>
       <c r="L75">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="M75">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="N75">
         <v>1</v>
@@ -2891,7 +2888,7 @@
         <v>0</v>
       </c>
       <c r="Q75">
-        <v>117</v>
+        <v>81</v>
       </c>
     </row>
     <row r="76" spans="10:17">
@@ -2899,13 +2896,13 @@
         <v>89</v>
       </c>
       <c r="K76">
-        <v>0.2222222222222222</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="L76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M76">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N76">
         <v>1</v>
@@ -2917,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="Q76">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="10:17">
@@ -2925,13 +2922,13 @@
         <v>90</v>
       </c>
       <c r="K77">
-        <v>0.2117647058823529</v>
+        <v>0.213166144200627</v>
       </c>
       <c r="L77">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="M77">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="N77">
         <v>1</v>
@@ -2943,7 +2940,7 @@
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>67</v>
+        <v>251</v>
       </c>
     </row>
     <row r="78" spans="10:17">
@@ -2951,13 +2948,13 @@
         <v>91</v>
       </c>
       <c r="K78">
-        <v>0.2083333333333333</v>
+        <v>0.2117647058823529</v>
       </c>
       <c r="L78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="M78">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -2969,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="Q78">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="79" spans="10:17">
@@ -2977,13 +2974,13 @@
         <v>92</v>
       </c>
       <c r="K79">
-        <v>0.2</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="L79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M79">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N79">
         <v>1</v>
@@ -2995,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="80" spans="10:17">
@@ -3003,13 +3000,13 @@
         <v>93</v>
       </c>
       <c r="K80">
-        <v>0.1946308724832215</v>
+        <v>0.2072072072072072</v>
       </c>
       <c r="L80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="M80">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="N80">
         <v>1</v>
@@ -3021,7 +3018,7 @@
         <v>0</v>
       </c>
       <c r="Q80">
-        <v>120</v>
+        <v>88</v>
       </c>
     </row>
     <row r="81" spans="10:17">
@@ -3029,13 +3026,13 @@
         <v>94</v>
       </c>
       <c r="K81">
-        <v>0.1919191919191919</v>
+        <v>0.2</v>
       </c>
       <c r="L81">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M81">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="N81">
         <v>1</v>
@@ -3055,13 +3052,13 @@
         <v>95</v>
       </c>
       <c r="K82">
-        <v>0.1912225705329154</v>
+        <v>0.1882352941176471</v>
       </c>
       <c r="L82">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="M82">
-        <v>61</v>
+        <v>16</v>
       </c>
       <c r="N82">
         <v>1</v>
@@ -3073,7 +3070,7 @@
         <v>0</v>
       </c>
       <c r="Q82">
-        <v>258</v>
+        <v>69</v>
       </c>
     </row>
     <row r="83" spans="10:17">
@@ -3081,13 +3078,13 @@
         <v>96</v>
       </c>
       <c r="K83">
-        <v>0.176158940397351</v>
+        <v>0.1847826086956522</v>
       </c>
       <c r="L83">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="M83">
-        <v>133</v>
+        <v>17</v>
       </c>
       <c r="N83">
         <v>1</v>
@@ -3099,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="Q83">
-        <v>622</v>
+        <v>75</v>
       </c>
     </row>
     <row r="84" spans="10:17">
@@ -3107,13 +3104,13 @@
         <v>97</v>
       </c>
       <c r="K84">
-        <v>0.1739130434782609</v>
+        <v>0.1735099337748344</v>
       </c>
       <c r="L84">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="M84">
-        <v>16</v>
+        <v>131</v>
       </c>
       <c r="N84">
         <v>1</v>
@@ -3125,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="Q84">
-        <v>76</v>
+        <v>624</v>
       </c>
     </row>
     <row r="85" spans="10:17">
@@ -3133,13 +3130,13 @@
         <v>98</v>
       </c>
       <c r="K85">
-        <v>0.17</v>
+        <v>0.1677852348993289</v>
       </c>
       <c r="L85">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="N85">
         <v>1</v>
@@ -3151,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="Q85">
-        <v>83</v>
+        <v>124</v>
       </c>
     </row>
     <row r="86" spans="10:17">
@@ -3159,25 +3156,25 @@
         <v>99</v>
       </c>
       <c r="K86">
-        <v>0.1696428571428572</v>
+        <v>0.1559633027522936</v>
       </c>
       <c r="L86">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M86">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O86">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P86" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q86">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="10:17">
@@ -3185,13 +3182,13 @@
         <v>100</v>
       </c>
       <c r="K87">
-        <v>0.1662404092071611</v>
+        <v>0.1547314578005115</v>
       </c>
       <c r="L87">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="M87">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="N87">
         <v>1</v>
@@ -3203,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="Q87">
-        <v>652</v>
+        <v>661</v>
       </c>
     </row>
     <row r="88" spans="10:17">
@@ -3211,25 +3208,25 @@
         <v>101</v>
       </c>
       <c r="K88">
-        <v>0.1538461538461539</v>
+        <v>0.1517857142857143</v>
       </c>
       <c r="L88">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="M88">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="P88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q88">
-        <v>110</v>
+        <v>95</v>
       </c>
     </row>
     <row r="89" spans="10:17">
@@ -3237,13 +3234,13 @@
         <v>102</v>
       </c>
       <c r="K89">
-        <v>0.1441441441441441</v>
+        <v>0.1461538461538462</v>
       </c>
       <c r="L89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="M89">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="N89">
         <v>1</v>
@@ -3255,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>95</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="10:17">
@@ -3263,13 +3260,13 @@
         <v>103</v>
       </c>
       <c r="K90">
-        <v>0.1402439024390244</v>
+        <v>0.1454545454545454</v>
       </c>
       <c r="L90">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M90">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N90">
         <v>1</v>
@@ -3289,13 +3286,13 @@
         <v>104</v>
       </c>
       <c r="K91">
-        <v>0.1393939393939394</v>
+        <v>0.139344262295082</v>
       </c>
       <c r="L91">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M91">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="N91">
         <v>1</v>
@@ -3307,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="Q91">
-        <v>142</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="10:17">
@@ -3315,13 +3312,13 @@
         <v>105</v>
       </c>
       <c r="K92">
-        <v>0.139344262295082</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="L92">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="M92">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="N92">
         <v>1</v>
@@ -3333,7 +3330,7 @@
         <v>0</v>
       </c>
       <c r="Q92">
-        <v>105</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="10:17">
@@ -3341,13 +3338,13 @@
         <v>106</v>
       </c>
       <c r="K93">
-        <v>0.1376146788990826</v>
+        <v>0.1317829457364341</v>
       </c>
       <c r="L93">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M93">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="N93">
         <v>1</v>
@@ -3359,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="Q93">
-        <v>94</v>
+        <v>112</v>
       </c>
     </row>
     <row r="94" spans="10:17">
@@ -3367,13 +3364,13 @@
         <v>107</v>
       </c>
       <c r="K94">
-        <v>0.1367521367521368</v>
+        <v>0.1282051282051282</v>
       </c>
       <c r="L94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M94">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N94">
         <v>1</v>
@@ -3385,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="Q94">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="10:17">
@@ -3393,25 +3390,25 @@
         <v>108</v>
       </c>
       <c r="K95">
-        <v>0.1362530413625304</v>
+        <v>0.1243243243243243</v>
       </c>
       <c r="L95">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="M95">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N95">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q95">
-        <v>355</v>
+        <v>324</v>
       </c>
     </row>
     <row r="96" spans="10:17">
@@ -3419,25 +3416,25 @@
         <v>109</v>
       </c>
       <c r="K96">
-        <v>0.127027027027027</v>
+        <v>0.1222222222222222</v>
       </c>
       <c r="L96">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="M96">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="N96">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O96">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q96">
-        <v>323</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="10:17">
@@ -3445,13 +3442,13 @@
         <v>110</v>
       </c>
       <c r="K97">
-        <v>0.1237113402061856</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="L97">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="M97">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="N97">
         <v>1</v>
@@ -3463,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="Q97">
-        <v>255</v>
+        <v>156</v>
       </c>
     </row>
     <row r="98" spans="10:17">
@@ -3471,13 +3468,13 @@
         <v>111</v>
       </c>
       <c r="K98">
-        <v>0.1226993865030675</v>
+        <v>0.1165644171779141</v>
       </c>
       <c r="L98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M98">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N98">
         <v>1</v>
@@ -3489,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="Q98">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="99" spans="10:17">
@@ -3497,13 +3494,13 @@
         <v>112</v>
       </c>
       <c r="K99">
-        <v>0.1182266009852217</v>
+        <v>0.1143552311435523</v>
       </c>
       <c r="L99">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M99">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="N99">
         <v>1</v>
@@ -3515,7 +3512,7 @@
         <v>0</v>
       </c>
       <c r="Q99">
-        <v>179</v>
+        <v>364</v>
       </c>
     </row>
     <row r="100" spans="10:17">
@@ -3523,13 +3520,13 @@
         <v>113</v>
       </c>
       <c r="K100">
-        <v>0.1073446327683616</v>
+        <v>0.1134453781512605</v>
       </c>
       <c r="L100">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="M100">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="N100">
         <v>1</v>
@@ -3541,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="Q100">
-        <v>158</v>
+        <v>211</v>
       </c>
     </row>
     <row r="101" spans="10:17">
@@ -3549,13 +3546,13 @@
         <v>114</v>
       </c>
       <c r="K101">
-        <v>0.1068181818181818</v>
+        <v>0.09785202863961814</v>
       </c>
       <c r="L101">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="M101">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="N101">
         <v>1</v>
@@ -3567,7 +3564,7 @@
         <v>0</v>
       </c>
       <c r="Q101">
-        <v>393</v>
+        <v>378</v>
       </c>
     </row>
     <row r="102" spans="10:17">
@@ -3575,13 +3572,13 @@
         <v>115</v>
       </c>
       <c r="K102">
-        <v>0.1050420168067227</v>
+        <v>0.0975609756097561</v>
       </c>
       <c r="L102">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="M102">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="N102">
         <v>1</v>
@@ -3593,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="Q102">
-        <v>213</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103" spans="10:17">
@@ -3601,13 +3598,13 @@
         <v>116</v>
       </c>
       <c r="K103">
-        <v>0.1025641025641026</v>
+        <v>0.09615384615384616</v>
       </c>
       <c r="L103">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M103">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N103">
         <v>1</v>
@@ -3619,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="Q103">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104" spans="10:17">
@@ -3627,13 +3624,13 @@
         <v>117</v>
       </c>
       <c r="K104">
-        <v>0.08991228070175439</v>
+        <v>0.0959409594095941</v>
       </c>
       <c r="L104">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="M104">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="N104">
         <v>1</v>
@@ -3645,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="Q104">
-        <v>415</v>
+        <v>245</v>
       </c>
     </row>
     <row r="105" spans="10:17">
@@ -3653,13 +3650,13 @@
         <v>118</v>
       </c>
       <c r="K105">
-        <v>0.08591885441527446</v>
+        <v>0.09359605911330049</v>
       </c>
       <c r="L105">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="M105">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -3671,7 +3668,7 @@
         <v>0</v>
       </c>
       <c r="Q105">
-        <v>383</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="10:17">
@@ -3679,13 +3676,13 @@
         <v>119</v>
       </c>
       <c r="K106">
-        <v>0.08118081180811808</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="L106">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="M106">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="N106">
         <v>1</v>
@@ -3697,7 +3694,7 @@
         <v>0</v>
       </c>
       <c r="Q106">
-        <v>249</v>
+        <v>400</v>
       </c>
     </row>
     <row r="107" spans="10:17">
@@ -3705,13 +3702,13 @@
         <v>120</v>
       </c>
       <c r="K107">
-        <v>0.07407407407407407</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L107">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="M107">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="N107">
         <v>1</v>
@@ -3723,7 +3720,7 @@
         <v>0</v>
       </c>
       <c r="Q107">
-        <v>250</v>
+        <v>417</v>
       </c>
     </row>
     <row r="108" spans="10:17">
@@ -3731,13 +3728,13 @@
         <v>121</v>
       </c>
       <c r="K108">
-        <v>0.06312769010043041</v>
+        <v>0.06886657101865136</v>
       </c>
       <c r="L108">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M108">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N108">
         <v>0.98</v>
@@ -3749,7 +3746,7 @@
         <v>1</v>
       </c>
       <c r="Q108">
-        <v>653</v>
+        <v>649</v>
       </c>
     </row>
     <row r="109" spans="10:17">
@@ -3757,7 +3754,7 @@
         <v>122</v>
       </c>
       <c r="K109">
-        <v>0.0583756345177665</v>
+        <v>0.06284153005464481</v>
       </c>
       <c r="L109">
         <v>23</v>
@@ -3775,7 +3772,7 @@
         <v>0</v>
       </c>
       <c r="Q109">
-        <v>371</v>
+        <v>343</v>
       </c>
     </row>
     <row r="110" spans="10:17">
@@ -3783,13 +3780,13 @@
         <v>123</v>
       </c>
       <c r="K110">
-        <v>0.05737704918032787</v>
+        <v>0.05970149253731343</v>
       </c>
       <c r="L110">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="M110">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="N110">
         <v>1</v>
@@ -3801,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="Q110">
-        <v>345</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="111" spans="10:17">
@@ -3809,25 +3806,25 @@
         <v>124</v>
       </c>
       <c r="K111">
-        <v>0.05415499533146592</v>
+        <v>0.05852417302798982</v>
       </c>
       <c r="L111">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="M111">
-        <v>59</v>
+        <v>24</v>
       </c>
       <c r="N111">
-        <v>0.98</v>
+        <v>0.96</v>
       </c>
       <c r="O111">
-        <v>0.02000000000000002</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P111" t="b">
         <v>1</v>
       </c>
       <c r="Q111">
-        <v>1013</v>
+        <v>370</v>
       </c>
     </row>
     <row r="112" spans="10:17">
@@ -3835,25 +3832,25 @@
         <v>125</v>
       </c>
       <c r="K112">
-        <v>0.04120879120879121</v>
+        <v>0.05175600739371534</v>
       </c>
       <c r="L112">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="M112">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="N112">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="O112">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P112" t="b">
         <v>1</v>
       </c>
       <c r="Q112">
-        <v>349</v>
+        <v>513</v>
       </c>
     </row>
     <row r="113" spans="10:17">
@@ -3861,13 +3858,13 @@
         <v>126</v>
       </c>
       <c r="K113">
-        <v>0.03874538745387454</v>
+        <v>0.03864734299516908</v>
       </c>
       <c r="L113">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M113">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N113">
         <v>1</v>
@@ -3879,7 +3876,7 @@
         <v>0</v>
       </c>
       <c r="Q113">
-        <v>521</v>
+        <v>398</v>
       </c>
     </row>
     <row r="114" spans="10:17">
@@ -3887,13 +3884,13 @@
         <v>127</v>
       </c>
       <c r="K114">
-        <v>0.03864734299516908</v>
+        <v>0.03831417624521073</v>
       </c>
       <c r="L114">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M114">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N114">
         <v>1</v>
@@ -3905,7 +3902,7 @@
         <v>0</v>
       </c>
       <c r="Q114">
-        <v>398</v>
+        <v>502</v>
       </c>
     </row>
     <row r="115" spans="10:17">
@@ -3913,13 +3910,13 @@
         <v>128</v>
       </c>
       <c r="K115">
-        <v>0.03262955854126679</v>
+        <v>0.02943722943722944</v>
       </c>
       <c r="L115">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="M115">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="N115">
         <v>0.9399999999999999</v>
@@ -3931,33 +3928,7 @@
         <v>1</v>
       </c>
       <c r="Q115">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="116" spans="10:17">
-      <c r="J116" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="K116">
-        <v>0.02854671280276817</v>
-      </c>
-      <c r="L116">
-        <v>33</v>
-      </c>
-      <c r="M116">
-        <v>34</v>
-      </c>
-      <c r="N116">
-        <v>0.97</v>
-      </c>
-      <c r="O116">
-        <v>0.03000000000000003</v>
-      </c>
-      <c r="P116" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q116">
-        <v>1123</v>
+        <v>1121</v>
       </c>
     </row>
   </sheetData>
